--- a/bin/Debug/DATA.xlsx
+++ b/bin/Debug/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="LOCATION" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -87,48 +87,6 @@
     <t>E15</t>
   </si>
   <si>
-    <t>Khu cong nghe cao</t>
-  </si>
-  <si>
-    <t>Xuong thuc tap in</t>
-  </si>
-  <si>
-    <t>Xuong thuc tap nguoi, han</t>
-  </si>
-  <si>
-    <t>Xuong thuc hanh nghe 1</t>
-  </si>
-  <si>
-    <t>Xuong thuc hanh nghe 2</t>
-  </si>
-  <si>
-    <t>Van phong khoa CKM</t>
-  </si>
-  <si>
-    <t>Khu phong hoc</t>
-  </si>
-  <si>
-    <t>VP Khoa CNTT</t>
-  </si>
-  <si>
-    <t>Viện NC&amp;PTGDCN</t>
-  </si>
-  <si>
-    <t>Siêu thị sinh viên</t>
-  </si>
-  <si>
-    <t>Căng tin A</t>
-  </si>
-  <si>
-    <t>Văn phòng TTKTTH</t>
-  </si>
-  <si>
-    <t>BM.KTKT - Hàn hơi</t>
-  </si>
-  <si>
-    <t>VP.BM.GDTC TTKTTH</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -145,6 +103,51 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>Khu công nghệ cao (E1)</t>
+  </si>
+  <si>
+    <t>VP.BM.GDTC TTKTTH (E2)</t>
+  </si>
+  <si>
+    <t>Xưởng thực tập in (E3)</t>
+  </si>
+  <si>
+    <t>Xưởng thực tập nguội, hàn (E4)</t>
+  </si>
+  <si>
+    <t>BM.KTKT - Hàn hơi (E5)</t>
+  </si>
+  <si>
+    <t>Xưởng thực hành nghề 1 (E6)</t>
+  </si>
+  <si>
+    <t>Xưởng thực hành nghề 2 (E7)</t>
+  </si>
+  <si>
+    <t>Văn phòng khoa CKM (E8)</t>
+  </si>
+  <si>
+    <t>Khu phòng học (E9)</t>
+  </si>
+  <si>
+    <t>VP Khoa CNTT (E10)</t>
+  </si>
+  <si>
+    <t>Văn phòng TTKTTH (E11)</t>
+  </si>
+  <si>
+    <t>Viện NC&amp;PTGDCN (E12)</t>
+  </si>
+  <si>
+    <t>Siêu thị sinh viên (E13)</t>
+  </si>
+  <si>
+    <t>Căng tin A (E14)</t>
+  </si>
+  <si>
+    <t>Văn phòng TTKTTH (E15)</t>
   </si>
 </sst>
 </file>
@@ -676,7 +679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -882,7 +885,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>457</v>
@@ -893,7 +896,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>343</v>
@@ -904,7 +907,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>345</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>216</v>
@@ -926,7 +929,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>168</v>
@@ -937,7 +940,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>332</v>
@@ -956,9 +959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -966,7 +967,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1019,22 +1022,22 @@
         <v>4</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2297,7 +2300,7 @@
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -2445,7 +2448,7 @@
     </row>
     <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -2519,7 +2522,7 @@
     </row>
     <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -2593,7 +2596,7 @@
     </row>
     <row r="23" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -2667,7 +2670,7 @@
     </row>
     <row r="24" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -2749,14 +2752,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
@@ -2809,22 +2812,22 @@
         <v>4</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="W1" s="6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="X1" s="7" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4087,7 +4090,7 @@
     </row>
     <row r="19" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B19" s="2">
         <v>0</v>
@@ -4161,7 +4164,7 @@
     </row>
     <row r="20" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2">
         <v>0</v>
@@ -4235,7 +4238,7 @@
     </row>
     <row r="21" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -4309,7 +4312,7 @@
     </row>
     <row r="22" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -4383,7 +4386,7 @@
     </row>
     <row r="23" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -4457,7 +4460,7 @@
     </row>
     <row r="24" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B24" s="4">
         <v>0</v>
@@ -4538,20 +4541,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
@@ -4560,7 +4563,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4568,7 +4571,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4576,7 +4579,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4584,7 +4587,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4592,7 +4595,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4600,7 +4603,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4608,7 +4611,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4616,7 +4619,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4624,7 +4627,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4632,7 +4635,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4640,7 +4643,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4648,7 +4651,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4656,7 +4659,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4664,7 +4667,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4672,10 +4675,11 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bin/Debug/DATA.xlsx
+++ b/bin/Debug/DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="LOCATION" sheetId="1" r:id="rId1"/>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +704,7 @@
         <v>464</v>
       </c>
       <c r="C2">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>389</v>
       </c>
       <c r="C3">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,7 +726,7 @@
         <v>312</v>
       </c>
       <c r="C4">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,7 +737,7 @@
         <v>233</v>
       </c>
       <c r="C5">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
         <v>165</v>
       </c>
       <c r="C6">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,7 +759,7 @@
         <v>338</v>
       </c>
       <c r="C7">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -770,7 +770,7 @@
         <v>432</v>
       </c>
       <c r="C8">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
         <v>341</v>
       </c>
       <c r="C9">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>454</v>
       </c>
       <c r="C10">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,7 +803,7 @@
         <v>339</v>
       </c>
       <c r="C11">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
         <v>261</v>
       </c>
       <c r="C12">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
         <v>168</v>
       </c>
       <c r="C13">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -836,7 +836,7 @@
         <v>682</v>
       </c>
       <c r="C14">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -847,7 +847,7 @@
         <v>687</v>
       </c>
       <c r="C15">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -858,7 +858,7 @@
         <v>337</v>
       </c>
       <c r="C16">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -869,7 +869,7 @@
         <v>676</v>
       </c>
       <c r="C17">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>459</v>
       </c>
       <c r="C18">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,7 +891,7 @@
         <v>457</v>
       </c>
       <c r="C19">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -902,7 +902,7 @@
         <v>343</v>
       </c>
       <c r="C20">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -913,7 +913,7 @@
         <v>345</v>
       </c>
       <c r="C21">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -924,7 +924,7 @@
         <v>216</v>
       </c>
       <c r="C22">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
         <v>168</v>
       </c>
       <c r="C23">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -946,7 +946,7 @@
         <v>332</v>
       </c>
       <c r="C24">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -4541,7 +4541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
